--- a/non_explainable_medium_disc/test/class_label.xlsx
+++ b/non_explainable_medium_disc/test/class_label.xlsx
@@ -444,7 +444,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -556,7 +556,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -596,7 +596,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -628,7 +628,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -684,7 +684,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -788,7 +788,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -860,7 +860,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -868,7 +868,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -964,7 +964,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -1076,7 +1076,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -1140,7 +1140,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
@@ -1236,7 +1236,7 @@
         <v>99</v>
       </c>
       <c r="B101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102">
@@ -1268,7 +1268,7 @@
         <v>103</v>
       </c>
       <c r="B105" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106">
@@ -1356,7 +1356,7 @@
         <v>114</v>
       </c>
       <c r="B116" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117">
@@ -1388,7 +1388,7 @@
         <v>118</v>
       </c>
       <c r="B120" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121">
@@ -1524,7 +1524,7 @@
         <v>135</v>
       </c>
       <c r="B137" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138">
@@ -1556,7 +1556,7 @@
         <v>139</v>
       </c>
       <c r="B141" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142">
@@ -1572,7 +1572,7 @@
         <v>141</v>
       </c>
       <c r="B143" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144">
@@ -1588,7 +1588,7 @@
         <v>143</v>
       </c>
       <c r="B145" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146">
@@ -1668,7 +1668,7 @@
         <v>153</v>
       </c>
       <c r="B155" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156">
@@ -1684,7 +1684,7 @@
         <v>155</v>
       </c>
       <c r="B157" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158">
@@ -1708,7 +1708,7 @@
         <v>158</v>
       </c>
       <c r="B160" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161">
@@ -1788,7 +1788,7 @@
         <v>168</v>
       </c>
       <c r="B170" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171">
@@ -1804,7 +1804,7 @@
         <v>170</v>
       </c>
       <c r="B172" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173">
@@ -1924,7 +1924,7 @@
         <v>185</v>
       </c>
       <c r="B187" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188">
@@ -1988,7 +1988,7 @@
         <v>193</v>
       </c>
       <c r="B195" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196">
@@ -2108,7 +2108,7 @@
         <v>208</v>
       </c>
       <c r="B210" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211">
@@ -2332,7 +2332,7 @@
         <v>236</v>
       </c>
       <c r="B238" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239">
@@ -2340,7 +2340,7 @@
         <v>237</v>
       </c>
       <c r="B239" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240">
@@ -2356,7 +2356,7 @@
         <v>239</v>
       </c>
       <c r="B241" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242">
@@ -2372,7 +2372,7 @@
         <v>241</v>
       </c>
       <c r="B243" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244">
@@ -2436,7 +2436,7 @@
         <v>249</v>
       </c>
       <c r="B251" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252">
@@ -2684,7 +2684,7 @@
         <v>280</v>
       </c>
       <c r="B282" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283">
@@ -2716,7 +2716,7 @@
         <v>284</v>
       </c>
       <c r="B286" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287">
@@ -2764,7 +2764,7 @@
         <v>290</v>
       </c>
       <c r="B292" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293">
@@ -2772,7 +2772,7 @@
         <v>291</v>
       </c>
       <c r="B293" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="294">
@@ -2804,7 +2804,7 @@
         <v>295</v>
       </c>
       <c r="B297" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298">
@@ -2828,7 +2828,7 @@
         <v>298</v>
       </c>
       <c r="B300" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301">
@@ -2852,7 +2852,7 @@
         <v>301</v>
       </c>
       <c r="B303" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304">
@@ -2916,7 +2916,7 @@
         <v>309</v>
       </c>
       <c r="B311" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="312">
@@ -2956,7 +2956,7 @@
         <v>314</v>
       </c>
       <c r="B316" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="317">
@@ -2980,7 +2980,7 @@
         <v>317</v>
       </c>
       <c r="B319" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="320">
@@ -3012,7 +3012,7 @@
         <v>321</v>
       </c>
       <c r="B323" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324">
@@ -3028,7 +3028,7 @@
         <v>323</v>
       </c>
       <c r="B325" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326">
@@ -3092,7 +3092,7 @@
         <v>331</v>
       </c>
       <c r="B333" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334">
@@ -3100,7 +3100,7 @@
         <v>332</v>
       </c>
       <c r="B334" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335">
@@ -3132,7 +3132,7 @@
         <v>336</v>
       </c>
       <c r="B338" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339">
@@ -3188,7 +3188,7 @@
         <v>343</v>
       </c>
       <c r="B345" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="346">
@@ -3212,7 +3212,7 @@
         <v>346</v>
       </c>
       <c r="B348" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="349">
@@ -3252,7 +3252,7 @@
         <v>351</v>
       </c>
       <c r="B353" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="354">
@@ -3284,7 +3284,7 @@
         <v>355</v>
       </c>
       <c r="B357" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="358">
@@ -3292,7 +3292,7 @@
         <v>356</v>
       </c>
       <c r="B358" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="359">
@@ -3532,7 +3532,7 @@
         <v>386</v>
       </c>
       <c r="B388" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="389">
@@ -3668,7 +3668,7 @@
         <v>403</v>
       </c>
       <c r="B405" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406">
@@ -3692,7 +3692,7 @@
         <v>406</v>
       </c>
       <c r="B408" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="409">
@@ -3700,7 +3700,7 @@
         <v>407</v>
       </c>
       <c r="B409" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="410">
@@ -3708,7 +3708,7 @@
         <v>408</v>
       </c>
       <c r="B410" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411">
@@ -3788,7 +3788,7 @@
         <v>418</v>
       </c>
       <c r="B420" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="421">
@@ -3796,7 +3796,7 @@
         <v>419</v>
       </c>
       <c r="B421" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="422">
@@ -3868,7 +3868,7 @@
         <v>428</v>
       </c>
       <c r="B430" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="431">
@@ -3884,7 +3884,7 @@
         <v>430</v>
       </c>
       <c r="B432" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="433">
@@ -3908,7 +3908,7 @@
         <v>433</v>
       </c>
       <c r="B435" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="436">
@@ -3916,7 +3916,7 @@
         <v>434</v>
       </c>
       <c r="B436" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="437">
@@ -3980,7 +3980,7 @@
         <v>442</v>
       </c>
       <c r="B444" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="445">
@@ -4116,7 +4116,7 @@
         <v>459</v>
       </c>
       <c r="B461" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="462">
@@ -4140,7 +4140,7 @@
         <v>462</v>
       </c>
       <c r="B464" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="465">
@@ -4228,7 +4228,7 @@
         <v>473</v>
       </c>
       <c r="B475" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="476">
@@ -4236,7 +4236,7 @@
         <v>474</v>
       </c>
       <c r="B476" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="477">
@@ -4276,7 +4276,7 @@
         <v>479</v>
       </c>
       <c r="B481" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="482">
@@ -4396,7 +4396,7 @@
         <v>494</v>
       </c>
       <c r="B496" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="497">
@@ -4404,7 +4404,7 @@
         <v>495</v>
       </c>
       <c r="B497" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="498">
@@ -4596,7 +4596,7 @@
         <v>519</v>
       </c>
       <c r="B521" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="522">
@@ -4620,7 +4620,7 @@
         <v>522</v>
       </c>
       <c r="B524" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="525">
@@ -4772,7 +4772,7 @@
         <v>541</v>
       </c>
       <c r="B543" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="544">
@@ -4804,7 +4804,7 @@
         <v>545</v>
       </c>
       <c r="B547" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="548">
@@ -4940,7 +4940,7 @@
         <v>562</v>
       </c>
       <c r="B564" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="565">
@@ -4948,7 +4948,7 @@
         <v>563</v>
       </c>
       <c r="B565" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="566">
@@ -4972,7 +4972,7 @@
         <v>566</v>
       </c>
       <c r="B568" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="569">
@@ -4988,7 +4988,7 @@
         <v>568</v>
       </c>
       <c r="B570" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="571">
@@ -5020,7 +5020,7 @@
         <v>572</v>
       </c>
       <c r="B574" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="575">
@@ -5068,7 +5068,7 @@
         <v>578</v>
       </c>
       <c r="B580" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="581">
@@ -5236,7 +5236,7 @@
         <v>599</v>
       </c>
       <c r="B601" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="602">
@@ -5268,7 +5268,7 @@
         <v>603</v>
       </c>
       <c r="B605" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="606">
@@ -5348,7 +5348,7 @@
         <v>613</v>
       </c>
       <c r="B615" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="616">
@@ -5420,7 +5420,7 @@
         <v>622</v>
       </c>
       <c r="B624" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="625">
@@ -5436,7 +5436,7 @@
         <v>624</v>
       </c>
       <c r="B626" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="627">
@@ -5452,7 +5452,7 @@
         <v>626</v>
       </c>
       <c r="B628" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="629">
@@ -5596,7 +5596,7 @@
         <v>644</v>
       </c>
       <c r="B646" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="647">
@@ -5740,7 +5740,7 @@
         <v>662</v>
       </c>
       <c r="B664" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="665">
@@ -5748,7 +5748,7 @@
         <v>663</v>
       </c>
       <c r="B665" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="666">
@@ -5852,7 +5852,7 @@
         <v>676</v>
       </c>
       <c r="B678" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="679">
@@ -5876,7 +5876,7 @@
         <v>679</v>
       </c>
       <c r="B681" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="682">
@@ -5892,7 +5892,7 @@
         <v>681</v>
       </c>
       <c r="B683" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="684">
@@ -6172,7 +6172,7 @@
         <v>716</v>
       </c>
       <c r="B718" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="719">
@@ -6324,7 +6324,7 @@
         <v>735</v>
       </c>
       <c r="B737" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="738">
@@ -6364,7 +6364,7 @@
         <v>740</v>
       </c>
       <c r="B742" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="743">
@@ -6388,7 +6388,7 @@
         <v>743</v>
       </c>
       <c r="B745" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="746">
@@ -6508,7 +6508,7 @@
         <v>758</v>
       </c>
       <c r="B760" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="761">
@@ -6548,7 +6548,7 @@
         <v>763</v>
       </c>
       <c r="B765" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="766">
@@ -6580,7 +6580,7 @@
         <v>767</v>
       </c>
       <c r="B769" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="770">
@@ -6604,7 +6604,7 @@
         <v>770</v>
       </c>
       <c r="B772" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="773">
@@ -6612,7 +6612,7 @@
         <v>771</v>
       </c>
       <c r="B773" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="774">
@@ -6764,7 +6764,7 @@
         <v>790</v>
       </c>
       <c r="B792" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="793">
@@ -6892,7 +6892,7 @@
         <v>806</v>
       </c>
       <c r="B808" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="809">
@@ -6972,7 +6972,7 @@
         <v>816</v>
       </c>
       <c r="B818" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="819">
@@ -6988,7 +6988,7 @@
         <v>818</v>
       </c>
       <c r="B820" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="821">
@@ -6996,7 +6996,7 @@
         <v>819</v>
       </c>
       <c r="B821" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="822">
@@ -7012,7 +7012,7 @@
         <v>821</v>
       </c>
       <c r="B823" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="824">
@@ -7060,7 +7060,7 @@
         <v>827</v>
       </c>
       <c r="B829" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="830">
@@ -7116,7 +7116,7 @@
         <v>834</v>
       </c>
       <c r="B836" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="837">
@@ -7124,7 +7124,7 @@
         <v>835</v>
       </c>
       <c r="B837" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="838">
@@ -7180,7 +7180,7 @@
         <v>842</v>
       </c>
       <c r="B844" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="845">
@@ -7188,7 +7188,7 @@
         <v>843</v>
       </c>
       <c r="B845" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="846">
@@ -7260,7 +7260,7 @@
         <v>852</v>
       </c>
       <c r="B854" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="855">
@@ -7276,7 +7276,7 @@
         <v>854</v>
       </c>
       <c r="B856" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="857">
@@ -7380,7 +7380,7 @@
         <v>867</v>
       </c>
       <c r="B869" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="870">
@@ -7404,7 +7404,7 @@
         <v>870</v>
       </c>
       <c r="B872" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="873">
@@ -7556,7 +7556,7 @@
         <v>889</v>
       </c>
       <c r="B891" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="892">
@@ -7644,7 +7644,7 @@
         <v>900</v>
       </c>
       <c r="B902" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="903">
@@ -7652,7 +7652,7 @@
         <v>901</v>
       </c>
       <c r="B903" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="904">
@@ -7828,7 +7828,7 @@
         <v>923</v>
       </c>
       <c r="B925" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="926">
@@ -8004,7 +8004,7 @@
         <v>945</v>
       </c>
       <c r="B947" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="948">
@@ -8084,7 +8084,7 @@
         <v>955</v>
       </c>
       <c r="B957" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="958">
@@ -8124,7 +8124,7 @@
         <v>960</v>
       </c>
       <c r="B962" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="963">
@@ -8156,7 +8156,7 @@
         <v>964</v>
       </c>
       <c r="B966" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="967">
@@ -8180,7 +8180,7 @@
         <v>967</v>
       </c>
       <c r="B969" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="970">
@@ -8244,7 +8244,7 @@
         <v>975</v>
       </c>
       <c r="B977" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="978">
@@ -8324,7 +8324,7 @@
         <v>985</v>
       </c>
       <c r="B987" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="988">
@@ -8396,7 +8396,7 @@
         <v>994</v>
       </c>
       <c r="B996" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="997">
@@ -8732,7 +8732,7 @@
         <v>1036</v>
       </c>
       <c r="B1038" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1039">
@@ -8756,7 +8756,7 @@
         <v>1039</v>
       </c>
       <c r="B1041" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1042">
@@ -8836,7 +8836,7 @@
         <v>1049</v>
       </c>
       <c r="B1051" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1052">
@@ -8852,7 +8852,7 @@
         <v>1051</v>
       </c>
       <c r="B1053" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1054">
@@ -8860,7 +8860,7 @@
         <v>1052</v>
       </c>
       <c r="B1054" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1055">
@@ -8924,7 +8924,7 @@
         <v>1060</v>
       </c>
       <c r="B1062" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1063">
@@ -8996,7 +8996,7 @@
         <v>1069</v>
       </c>
       <c r="B1071" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1072">
@@ -9084,7 +9084,7 @@
         <v>1080</v>
       </c>
       <c r="B1082" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1083">
@@ -9156,7 +9156,7 @@
         <v>1089</v>
       </c>
       <c r="B1091" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1092">
@@ -9236,7 +9236,7 @@
         <v>1099</v>
       </c>
       <c r="B1101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1102">
@@ -9356,7 +9356,7 @@
         <v>1114</v>
       </c>
       <c r="B1116" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1117">
@@ -9420,7 +9420,7 @@
         <v>1122</v>
       </c>
       <c r="B1124" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1125">
@@ -9564,7 +9564,7 @@
         <v>1140</v>
       </c>
       <c r="B1142" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1143">
@@ -9580,7 +9580,7 @@
         <v>1142</v>
       </c>
       <c r="B1144" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1145">
@@ -9596,7 +9596,7 @@
         <v>1144</v>
       </c>
       <c r="B1146" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1147">
@@ -9684,7 +9684,7 @@
         <v>1155</v>
       </c>
       <c r="B1157" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1158">
@@ -9772,7 +9772,7 @@
         <v>1166</v>
       </c>
       <c r="B1168" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1169">
@@ -9828,7 +9828,7 @@
         <v>1173</v>
       </c>
       <c r="B1175" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1176">
@@ -9876,7 +9876,7 @@
         <v>1179</v>
       </c>
       <c r="B1181" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1182">
@@ -9940,7 +9940,7 @@
         <v>1187</v>
       </c>
       <c r="B1189" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1190">
@@ -10060,7 +10060,7 @@
         <v>1202</v>
       </c>
       <c r="B1204" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1205">
@@ -10068,7 +10068,7 @@
         <v>1203</v>
       </c>
       <c r="B1205" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1206">
@@ -10116,7 +10116,7 @@
         <v>1209</v>
       </c>
       <c r="B1211" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1212">
@@ -10124,7 +10124,7 @@
         <v>1210</v>
       </c>
       <c r="B1212" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1213">
@@ -10196,7 +10196,7 @@
         <v>1219</v>
       </c>
       <c r="B1221" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1222">
@@ -10300,7 +10300,7 @@
         <v>1232</v>
       </c>
       <c r="B1234" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1235">
@@ -10380,7 +10380,7 @@
         <v>1242</v>
       </c>
       <c r="B1244" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1245">
@@ -10516,7 +10516,7 @@
         <v>1259</v>
       </c>
       <c r="B1261" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1262">
@@ -10564,7 +10564,7 @@
         <v>1265</v>
       </c>
       <c r="B1267" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1268">
@@ -10628,7 +10628,7 @@
         <v>1273</v>
       </c>
       <c r="B1275" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1276">
@@ -10668,7 +10668,7 @@
         <v>1278</v>
       </c>
       <c r="B1280" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1281">
@@ -10676,7 +10676,7 @@
         <v>1279</v>
       </c>
       <c r="B1281" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1282">
@@ -10788,7 +10788,7 @@
         <v>1293</v>
       </c>
       <c r="B1295" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1296">
@@ -10796,7 +10796,7 @@
         <v>1294</v>
       </c>
       <c r="B1296" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1297">
@@ -10820,7 +10820,7 @@
         <v>1297</v>
       </c>
       <c r="B1299" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1300">
@@ -10900,7 +10900,7 @@
         <v>1307</v>
       </c>
       <c r="B1309" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1310">
@@ -11020,7 +11020,7 @@
         <v>1322</v>
       </c>
       <c r="B1324" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1325">
@@ -11044,7 +11044,7 @@
         <v>1325</v>
       </c>
       <c r="B1327" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1328">
@@ -11116,7 +11116,7 @@
         <v>1334</v>
       </c>
       <c r="B1336" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1337">
@@ -11124,7 +11124,7 @@
         <v>1335</v>
       </c>
       <c r="B1337" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1338">
@@ -11140,7 +11140,7 @@
         <v>1337</v>
       </c>
       <c r="B1339" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1340">
@@ -11156,7 +11156,7 @@
         <v>1339</v>
       </c>
       <c r="B1341" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1342">
@@ -11220,7 +11220,7 @@
         <v>1347</v>
       </c>
       <c r="B1349" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1350">
@@ -11228,7 +11228,7 @@
         <v>1348</v>
       </c>
       <c r="B1350" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1351">
@@ -11340,7 +11340,7 @@
         <v>1362</v>
       </c>
       <c r="B1364" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1365">
@@ -11348,7 +11348,7 @@
         <v>1363</v>
       </c>
       <c r="B1365" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1366">
@@ -11412,7 +11412,7 @@
         <v>1371</v>
       </c>
       <c r="B1373" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1374">
@@ -11468,7 +11468,7 @@
         <v>1378</v>
       </c>
       <c r="B1380" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1381">
@@ -11492,7 +11492,7 @@
         <v>1381</v>
       </c>
       <c r="B1383" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1384">
@@ -11580,7 +11580,7 @@
         <v>1392</v>
       </c>
       <c r="B1394" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1395">
@@ -11596,7 +11596,7 @@
         <v>1394</v>
       </c>
       <c r="B1396" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1397">
@@ -11612,7 +11612,7 @@
         <v>1396</v>
       </c>
       <c r="B1398" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1399">
@@ -11652,7 +11652,7 @@
         <v>1401</v>
       </c>
       <c r="B1403" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1404">
@@ -11660,7 +11660,7 @@
         <v>1402</v>
       </c>
       <c r="B1404" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1405">
@@ -11668,7 +11668,7 @@
         <v>1403</v>
       </c>
       <c r="B1405" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1406">
@@ -11684,7 +11684,7 @@
         <v>1405</v>
       </c>
       <c r="B1407" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1408">
@@ -11700,7 +11700,7 @@
         <v>1407</v>
       </c>
       <c r="B1409" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1410">
@@ -11732,7 +11732,7 @@
         <v>1411</v>
       </c>
       <c r="B1413" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1414">
@@ -11764,7 +11764,7 @@
         <v>1415</v>
       </c>
       <c r="B1417" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1418">
@@ -11916,7 +11916,7 @@
         <v>1434</v>
       </c>
       <c r="B1436" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1437">
@@ -11932,7 +11932,7 @@
         <v>1436</v>
       </c>
       <c r="B1438" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1439">
@@ -11964,7 +11964,7 @@
         <v>1440</v>
       </c>
       <c r="B1442" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1443">
@@ -12108,7 +12108,7 @@
         <v>1458</v>
       </c>
       <c r="B1460" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1461">
@@ -12196,7 +12196,7 @@
         <v>1469</v>
       </c>
       <c r="B1471" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1472">
@@ -12372,7 +12372,7 @@
         <v>1491</v>
       </c>
       <c r="B1493" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1494">
@@ -12404,7 +12404,7 @@
         <v>1495</v>
       </c>
       <c r="B1497" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1498">
@@ -12436,7 +12436,7 @@
         <v>1499</v>
       </c>
       <c r="B1501" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1502">
@@ -12596,7 +12596,7 @@
         <v>1519</v>
       </c>
       <c r="B1521" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1522">
@@ -12612,7 +12612,7 @@
         <v>1521</v>
       </c>
       <c r="B1523" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1524">
@@ -12668,7 +12668,7 @@
         <v>1528</v>
       </c>
       <c r="B1530" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1531">
@@ -12684,7 +12684,7 @@
         <v>1530</v>
       </c>
       <c r="B1532" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1533">
@@ -12692,7 +12692,7 @@
         <v>1531</v>
       </c>
       <c r="B1533" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1534">
@@ -12724,7 +12724,7 @@
         <v>1535</v>
       </c>
       <c r="B1537" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1538">
@@ -12892,7 +12892,7 @@
         <v>1556</v>
       </c>
       <c r="B1558" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1559">
@@ -12900,7 +12900,7 @@
         <v>1557</v>
       </c>
       <c r="B1559" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1560">
@@ -12956,7 +12956,7 @@
         <v>1564</v>
       </c>
       <c r="B1566" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1567">
@@ -13060,7 +13060,7 @@
         <v>1577</v>
       </c>
       <c r="B1579" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1580">
@@ -13068,7 +13068,7 @@
         <v>1578</v>
       </c>
       <c r="B1580" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1581">
@@ -13148,7 +13148,7 @@
         <v>1588</v>
       </c>
       <c r="B1590" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1591">
@@ -13236,7 +13236,7 @@
         <v>1599</v>
       </c>
       <c r="B1601" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1602">
@@ -13284,7 +13284,7 @@
         <v>1605</v>
       </c>
       <c r="B1607" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1608">
@@ -13316,7 +13316,7 @@
         <v>1609</v>
       </c>
       <c r="B1611" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1612">
@@ -13380,7 +13380,7 @@
         <v>1617</v>
       </c>
       <c r="B1619" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1620">
@@ -13420,7 +13420,7 @@
         <v>1622</v>
       </c>
       <c r="B1624" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1625">
@@ -13484,7 +13484,7 @@
         <v>1630</v>
       </c>
       <c r="B1632" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1633">
@@ -13500,7 +13500,7 @@
         <v>1632</v>
       </c>
       <c r="B1634" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1635">
@@ -13516,7 +13516,7 @@
         <v>1634</v>
       </c>
       <c r="B1636" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1637">
@@ -13684,7 +13684,7 @@
         <v>1655</v>
       </c>
       <c r="B1657" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1658">
@@ -13724,7 +13724,7 @@
         <v>1660</v>
       </c>
       <c r="B1662" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1663">
@@ -13732,7 +13732,7 @@
         <v>1661</v>
       </c>
       <c r="B1663" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1664">
@@ -13756,7 +13756,7 @@
         <v>1664</v>
       </c>
       <c r="B1666" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1667">
@@ -13780,7 +13780,7 @@
         <v>1667</v>
       </c>
       <c r="B1669" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1670">
@@ -13836,7 +13836,7 @@
         <v>1674</v>
       </c>
       <c r="B1676" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1677">
@@ -13852,7 +13852,7 @@
         <v>1676</v>
       </c>
       <c r="B1678" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1679">
@@ -13892,7 +13892,7 @@
         <v>1681</v>
       </c>
       <c r="B1683" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1684">
@@ -14020,7 +14020,7 @@
         <v>1697</v>
       </c>
       <c r="B1699" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1700">
@@ -14028,7 +14028,7 @@
         <v>1698</v>
       </c>
       <c r="B1700" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1701">
@@ -14060,7 +14060,7 @@
         <v>1702</v>
       </c>
       <c r="B1704" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1705">
@@ -14076,7 +14076,7 @@
         <v>1704</v>
       </c>
       <c r="B1706" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1707">
@@ -14212,7 +14212,7 @@
         <v>1721</v>
       </c>
       <c r="B1723" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1724">
@@ -14236,7 +14236,7 @@
         <v>1724</v>
       </c>
       <c r="B1726" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1727">
@@ -14268,7 +14268,7 @@
         <v>1728</v>
       </c>
       <c r="B1730" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1731">
@@ -14284,7 +14284,7 @@
         <v>1730</v>
       </c>
       <c r="B1732" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1733">
@@ -14308,7 +14308,7 @@
         <v>1733</v>
       </c>
       <c r="B1735" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1736">
@@ -14316,7 +14316,7 @@
         <v>1734</v>
       </c>
       <c r="B1736" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1737">
@@ -14356,7 +14356,7 @@
         <v>1739</v>
       </c>
       <c r="B1741" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1742">
@@ -14404,7 +14404,7 @@
         <v>1745</v>
       </c>
       <c r="B1747" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1748">
@@ -14452,7 +14452,7 @@
         <v>1751</v>
       </c>
       <c r="B1753" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1754">
@@ -14524,7 +14524,7 @@
         <v>1760</v>
       </c>
       <c r="B1762" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1763">
@@ -14612,7 +14612,7 @@
         <v>1771</v>
       </c>
       <c r="B1773" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1774">
@@ -14636,7 +14636,7 @@
         <v>1774</v>
       </c>
       <c r="B1776" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1777">
@@ -14684,7 +14684,7 @@
         <v>1780</v>
       </c>
       <c r="B1782" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1783">
@@ -14764,7 +14764,7 @@
         <v>1790</v>
       </c>
       <c r="B1792" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1793">
@@ -14836,7 +14836,7 @@
         <v>1799</v>
       </c>
       <c r="B1801" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1802">
@@ -14940,7 +14940,7 @@
         <v>1812</v>
       </c>
       <c r="B1814" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1815">
@@ -15036,7 +15036,7 @@
         <v>1824</v>
       </c>
       <c r="B1826" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1827">
@@ -15108,7 +15108,7 @@
         <v>1833</v>
       </c>
       <c r="B1835" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1836">
@@ -15164,7 +15164,7 @@
         <v>1840</v>
       </c>
       <c r="B1842" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1843">
@@ -15268,7 +15268,7 @@
         <v>1853</v>
       </c>
       <c r="B1855" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1856">
@@ -15332,7 +15332,7 @@
         <v>1861</v>
       </c>
       <c r="B1863" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1864">
@@ -15420,7 +15420,7 @@
         <v>1872</v>
       </c>
       <c r="B1874" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1875">
@@ -15492,7 +15492,7 @@
         <v>1881</v>
       </c>
       <c r="B1883" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1884">
@@ -15508,7 +15508,7 @@
         <v>1883</v>
       </c>
       <c r="B1885" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1886">
@@ -15556,7 +15556,7 @@
         <v>1889</v>
       </c>
       <c r="B1891" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1892">
@@ -15628,7 +15628,7 @@
         <v>1898</v>
       </c>
       <c r="B1900" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1901">
@@ -15668,7 +15668,7 @@
         <v>1903</v>
       </c>
       <c r="B1905" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1906">
@@ -15788,7 +15788,7 @@
         <v>1918</v>
       </c>
       <c r="B1920" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1921">
@@ -15820,7 +15820,7 @@
         <v>1922</v>
       </c>
       <c r="B1924" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1925">
@@ -15924,7 +15924,7 @@
         <v>1935</v>
       </c>
       <c r="B1937" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1938">
@@ -15964,7 +15964,7 @@
         <v>1940</v>
       </c>
       <c r="B1942" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1943">
@@ -15972,7 +15972,7 @@
         <v>1941</v>
       </c>
       <c r="B1943" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1944">
@@ -16020,7 +16020,7 @@
         <v>1947</v>
       </c>
       <c r="B1949" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1950">
@@ -16100,7 +16100,7 @@
         <v>1957</v>
       </c>
       <c r="B1959" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1960">
@@ -16204,7 +16204,7 @@
         <v>1970</v>
       </c>
       <c r="B1972" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1973">
@@ -16284,7 +16284,7 @@
         <v>1980</v>
       </c>
       <c r="B1982" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1983">
@@ -16420,7 +16420,7 @@
         <v>1997</v>
       </c>
       <c r="B1999" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2000">
@@ -16444,7 +16444,7 @@
         <v>2000</v>
       </c>
       <c r="B2002" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2003">
@@ -16476,7 +16476,7 @@
         <v>2004</v>
       </c>
       <c r="B2006" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2007">
@@ -16484,7 +16484,7 @@
         <v>2005</v>
       </c>
       <c r="B2007" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2008">
@@ -16516,7 +16516,7 @@
         <v>2009</v>
       </c>
       <c r="B2011" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2012">
@@ -16596,7 +16596,7 @@
         <v>2019</v>
       </c>
       <c r="B2021" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2022">
@@ -16644,7 +16644,7 @@
         <v>2025</v>
       </c>
       <c r="B2027" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2028">
@@ -16820,7 +16820,7 @@
         <v>2047</v>
       </c>
       <c r="B2049" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2050">
@@ -16860,7 +16860,7 @@
         <v>2052</v>
       </c>
       <c r="B2054" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2055">
@@ -17084,7 +17084,7 @@
         <v>2080</v>
       </c>
       <c r="B2082" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2083">
@@ -17148,7 +17148,7 @@
         <v>2088</v>
       </c>
       <c r="B2090" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2091">
@@ -17180,7 +17180,7 @@
         <v>2092</v>
       </c>
       <c r="B2094" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2095">
@@ -17236,7 +17236,7 @@
         <v>2099</v>
       </c>
       <c r="B2101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2102">
@@ -17268,7 +17268,7 @@
         <v>2103</v>
       </c>
       <c r="B2105" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2106">
@@ -17332,7 +17332,7 @@
         <v>2111</v>
       </c>
       <c r="B2113" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2114">
@@ -17364,7 +17364,7 @@
         <v>2115</v>
       </c>
       <c r="B2117" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2118">
@@ -17460,7 +17460,7 @@
         <v>2127</v>
       </c>
       <c r="B2129" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2130">
@@ -17508,7 +17508,7 @@
         <v>2133</v>
       </c>
       <c r="B2135" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2136">
@@ -17516,7 +17516,7 @@
         <v>2134</v>
       </c>
       <c r="B2136" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2137">
@@ -17524,7 +17524,7 @@
         <v>2135</v>
       </c>
       <c r="B2137" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2138">
@@ -17548,7 +17548,7 @@
         <v>2138</v>
       </c>
       <c r="B2140" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2141">
@@ -17556,7 +17556,7 @@
         <v>2139</v>
       </c>
       <c r="B2141" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2142">
@@ -17564,7 +17564,7 @@
         <v>2140</v>
       </c>
       <c r="B2142" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2143">
@@ -17580,7 +17580,7 @@
         <v>2142</v>
       </c>
       <c r="B2144" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2145">
@@ -17716,7 +17716,7 @@
         <v>2159</v>
       </c>
       <c r="B2161" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2162">
@@ -17812,7 +17812,7 @@
         <v>2171</v>
       </c>
       <c r="B2173" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2174">
@@ -18020,7 +18020,7 @@
         <v>2197</v>
       </c>
       <c r="B2199" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2200">
@@ -18052,7 +18052,7 @@
         <v>2201</v>
       </c>
       <c r="B2203" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2204">
@@ -18324,7 +18324,7 @@
         <v>2235</v>
       </c>
       <c r="B2237" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2238">
@@ -18380,7 +18380,7 @@
         <v>2242</v>
       </c>
       <c r="B2244" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2245">
@@ -18468,7 +18468,7 @@
         <v>2253</v>
       </c>
       <c r="B2255" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2256">
@@ -18492,7 +18492,7 @@
         <v>2256</v>
       </c>
       <c r="B2258" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2259">
@@ -18620,7 +18620,7 @@
         <v>2272</v>
       </c>
       <c r="B2274" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2275">
@@ -18692,7 +18692,7 @@
         <v>2281</v>
       </c>
       <c r="B2283" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2284">
@@ -18708,7 +18708,7 @@
         <v>2283</v>
       </c>
       <c r="B2285" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2286">
@@ -18748,7 +18748,7 @@
         <v>2288</v>
       </c>
       <c r="B2290" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2291">
@@ -18796,7 +18796,7 @@
         <v>2294</v>
       </c>
       <c r="B2296" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2297">
@@ -18852,7 +18852,7 @@
         <v>2301</v>
       </c>
       <c r="B2303" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2304">
@@ -18884,7 +18884,7 @@
         <v>2305</v>
       </c>
       <c r="B2307" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2308">
@@ -19012,7 +19012,7 @@
         <v>2321</v>
       </c>
       <c r="B2323" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2324">
@@ -19036,7 +19036,7 @@
         <v>2324</v>
       </c>
       <c r="B2326" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2327">
@@ -19068,7 +19068,7 @@
         <v>2328</v>
       </c>
       <c r="B2330" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2331">
@@ -19228,7 +19228,7 @@
         <v>2348</v>
       </c>
       <c r="B2350" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2351">
@@ -19260,7 +19260,7 @@
         <v>2352</v>
       </c>
       <c r="B2354" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2355">
@@ -19300,7 +19300,7 @@
         <v>2357</v>
       </c>
       <c r="B2359" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2360">
@@ -19308,7 +19308,7 @@
         <v>2358</v>
       </c>
       <c r="B2360" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2361">
@@ -19316,7 +19316,7 @@
         <v>2359</v>
       </c>
       <c r="B2361" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2362">
@@ -19364,7 +19364,7 @@
         <v>2365</v>
       </c>
       <c r="B2367" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2368">
@@ -19420,7 +19420,7 @@
         <v>2372</v>
       </c>
       <c r="B2374" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2375">
@@ -19508,7 +19508,7 @@
         <v>2383</v>
       </c>
       <c r="B2385" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2386">
@@ -19548,7 +19548,7 @@
         <v>2388</v>
       </c>
       <c r="B2390" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2391">
@@ -19588,7 +19588,7 @@
         <v>2393</v>
       </c>
       <c r="B2395" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2396">
@@ -19620,7 +19620,7 @@
         <v>2397</v>
       </c>
       <c r="B2399" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2400">
@@ -19740,7 +19740,7 @@
         <v>2412</v>
       </c>
       <c r="B2414" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2415">
@@ -19884,7 +19884,7 @@
         <v>2430</v>
       </c>
       <c r="B2432" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2433">
@@ -20020,7 +20020,7 @@
         <v>2447</v>
       </c>
       <c r="B2449" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2450">
@@ -20092,7 +20092,7 @@
         <v>2456</v>
       </c>
       <c r="B2458" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2459">
@@ -20132,7 +20132,7 @@
         <v>2461</v>
       </c>
       <c r="B2463" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2464">
@@ -20148,7 +20148,7 @@
         <v>2463</v>
       </c>
       <c r="B2465" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2466">
@@ -20180,7 +20180,7 @@
         <v>2467</v>
       </c>
       <c r="B2469" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2470">
@@ -20316,7 +20316,7 @@
         <v>2484</v>
       </c>
       <c r="B2486" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2487">
@@ -20364,7 +20364,7 @@
         <v>2490</v>
       </c>
       <c r="B2492" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2493">
@@ -20380,7 +20380,7 @@
         <v>2492</v>
       </c>
       <c r="B2494" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2495">
@@ -20388,7 +20388,7 @@
         <v>2493</v>
       </c>
       <c r="B2495" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2496">
@@ -20404,7 +20404,7 @@
         <v>2495</v>
       </c>
       <c r="B2497" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2498">
@@ -20532,7 +20532,7 @@
         <v>2511</v>
       </c>
       <c r="B2513" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2514">
@@ -20620,7 +20620,7 @@
         <v>2522</v>
       </c>
       <c r="B2524" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2525">
@@ -20716,7 +20716,7 @@
         <v>2534</v>
       </c>
       <c r="B2536" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2537">
@@ -20828,7 +20828,7 @@
         <v>2548</v>
       </c>
       <c r="B2550" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2551">
@@ -20964,7 +20964,7 @@
         <v>2565</v>
       </c>
       <c r="B2567" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2568">
@@ -21036,7 +21036,7 @@
         <v>2574</v>
       </c>
       <c r="B2576" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2577">
@@ -21108,7 +21108,7 @@
         <v>2583</v>
       </c>
       <c r="B2585" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2586">
@@ -21124,7 +21124,7 @@
         <v>2585</v>
       </c>
       <c r="B2587" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2588">
@@ -21188,7 +21188,7 @@
         <v>2593</v>
       </c>
       <c r="B2595" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2596">
@@ -21212,7 +21212,7 @@
         <v>2596</v>
       </c>
       <c r="B2598" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2599">
@@ -21220,7 +21220,7 @@
         <v>2597</v>
       </c>
       <c r="B2599" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2600">
@@ -21228,7 +21228,7 @@
         <v>2598</v>
       </c>
       <c r="B2600" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2601">
@@ -21788,7 +21788,7 @@
         <v>2668</v>
       </c>
       <c r="B2670" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2671">
@@ -21796,7 +21796,7 @@
         <v>2669</v>
       </c>
       <c r="B2671" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2672">
@@ -22004,7 +22004,7 @@
         <v>2695</v>
       </c>
       <c r="B2697" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2698">
@@ -22036,7 +22036,7 @@
         <v>2699</v>
       </c>
       <c r="B2701" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2702">
@@ -22052,7 +22052,7 @@
         <v>2701</v>
       </c>
       <c r="B2703" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2704">
@@ -22060,7 +22060,7 @@
         <v>2702</v>
       </c>
       <c r="B2704" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2705">
@@ -22132,7 +22132,7 @@
         <v>2711</v>
       </c>
       <c r="B2713" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2714">
@@ -22284,7 +22284,7 @@
         <v>2730</v>
       </c>
       <c r="B2732" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2733">
@@ -22372,7 +22372,7 @@
         <v>2741</v>
       </c>
       <c r="B2743" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2744">
@@ -22404,7 +22404,7 @@
         <v>2745</v>
       </c>
       <c r="B2747" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2748">
@@ -22412,7 +22412,7 @@
         <v>2746</v>
       </c>
       <c r="B2748" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2749">
@@ -22524,7 +22524,7 @@
         <v>2760</v>
       </c>
       <c r="B2762" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2763">
@@ -22956,7 +22956,7 @@
         <v>2814</v>
       </c>
       <c r="B2816" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2817">
@@ -23220,7 +23220,7 @@
         <v>2847</v>
       </c>
       <c r="B2849" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2850">
@@ -23340,7 +23340,7 @@
         <v>2862</v>
       </c>
       <c r="B2864" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2865">
@@ -23508,7 +23508,7 @@
         <v>2883</v>
       </c>
       <c r="B2885" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2886">
@@ -23540,7 +23540,7 @@
         <v>2887</v>
       </c>
       <c r="B2889" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2890">
@@ -23580,7 +23580,7 @@
         <v>2892</v>
       </c>
       <c r="B2894" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2895">
@@ -23636,7 +23636,7 @@
         <v>2899</v>
       </c>
       <c r="B2901" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2902">
@@ -23692,7 +23692,7 @@
         <v>2906</v>
       </c>
       <c r="B2908" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2909">
@@ -23700,7 +23700,7 @@
         <v>2907</v>
       </c>
       <c r="B2909" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2910">
@@ -23740,7 +23740,7 @@
         <v>2912</v>
       </c>
       <c r="B2914" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2915">
@@ -23948,7 +23948,7 @@
         <v>2938</v>
       </c>
       <c r="B2940" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2941">
@@ -23956,7 +23956,7 @@
         <v>2939</v>
       </c>
       <c r="B2941" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2942">
@@ -24012,7 +24012,7 @@
         <v>2946</v>
       </c>
       <c r="B2948" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2949">
@@ -24076,7 +24076,7 @@
         <v>2954</v>
       </c>
       <c r="B2956" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2957">
@@ -24188,7 +24188,7 @@
         <v>2968</v>
       </c>
       <c r="B2970" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2971">
@@ -24236,7 +24236,7 @@
         <v>2974</v>
       </c>
       <c r="B2976" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2977">
@@ -24260,7 +24260,7 @@
         <v>2977</v>
       </c>
       <c r="B2979" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2980">
@@ -24268,7 +24268,7 @@
         <v>2978</v>
       </c>
       <c r="B2980" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2981">
@@ -24324,7 +24324,7 @@
         <v>2985</v>
       </c>
       <c r="B2987" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2988">
@@ -24364,7 +24364,7 @@
         <v>2990</v>
       </c>
       <c r="B2992" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2993">
@@ -24508,7 +24508,7 @@
         <v>3008</v>
       </c>
       <c r="B3010" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3011">
@@ -24532,7 +24532,7 @@
         <v>3011</v>
       </c>
       <c r="B3013" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3014">
@@ -24620,7 +24620,7 @@
         <v>3022</v>
       </c>
       <c r="B3024" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3025">
@@ -24660,7 +24660,7 @@
         <v>3027</v>
       </c>
       <c r="B3029" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3030">
@@ -24764,7 +24764,7 @@
         <v>3040</v>
       </c>
       <c r="B3042" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3043">
@@ -24844,7 +24844,7 @@
         <v>3050</v>
       </c>
       <c r="B3052" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3053">
@@ -25012,7 +25012,7 @@
         <v>3071</v>
       </c>
       <c r="B3073" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3074">
@@ -25132,7 +25132,7 @@
         <v>3086</v>
       </c>
       <c r="B3088" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3089">
@@ -25220,7 +25220,7 @@
         <v>3097</v>
       </c>
       <c r="B3099" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3100">
@@ -25260,7 +25260,7 @@
         <v>3102</v>
       </c>
       <c r="B3104" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3105">
@@ -25540,7 +25540,7 @@
         <v>3137</v>
       </c>
       <c r="B3139" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3140">
@@ -25596,7 +25596,7 @@
         <v>3144</v>
       </c>
       <c r="B3146" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3147">
@@ -25796,7 +25796,7 @@
         <v>3169</v>
       </c>
       <c r="B3171" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3172">
@@ -25860,7 +25860,7 @@
         <v>3177</v>
       </c>
       <c r="B3179" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3180">
@@ -25964,7 +25964,7 @@
         <v>3190</v>
       </c>
       <c r="B3192" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3193">
@@ -25996,7 +25996,7 @@
         <v>3194</v>
       </c>
       <c r="B3196" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3197">
@@ -26132,7 +26132,7 @@
         <v>3211</v>
       </c>
       <c r="B3213" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3214">
@@ -26140,7 +26140,7 @@
         <v>3212</v>
       </c>
       <c r="B3214" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3215">
@@ -26220,7 +26220,7 @@
         <v>3222</v>
       </c>
       <c r="B3224" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3225">
@@ -26316,7 +26316,7 @@
         <v>3234</v>
       </c>
       <c r="B3236" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3237">
@@ -26404,7 +26404,7 @@
         <v>3245</v>
       </c>
       <c r="B3247" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3248">
@@ -26412,7 +26412,7 @@
         <v>3246</v>
       </c>
       <c r="B3248" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3249">
@@ -26444,7 +26444,7 @@
         <v>3250</v>
       </c>
       <c r="B3252" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3253">
@@ -26476,7 +26476,7 @@
         <v>3254</v>
       </c>
       <c r="B3256" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3257">
@@ -26556,7 +26556,7 @@
         <v>3264</v>
       </c>
       <c r="B3266" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3267">
@@ -26580,7 +26580,7 @@
         <v>3267</v>
       </c>
       <c r="B3269" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3270">
@@ -26628,7 +26628,7 @@
         <v>3273</v>
       </c>
       <c r="B3275" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3276">
@@ -26660,7 +26660,7 @@
         <v>3277</v>
       </c>
       <c r="B3279" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3280">
@@ -26700,7 +26700,7 @@
         <v>3282</v>
       </c>
       <c r="B3284" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3285">
@@ -26764,7 +26764,7 @@
         <v>3290</v>
       </c>
       <c r="B3292" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3293">
@@ -26772,7 +26772,7 @@
         <v>3291</v>
       </c>
       <c r="B3293" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3294">
@@ -26852,7 +26852,7 @@
         <v>3301</v>
       </c>
       <c r="B3303" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3304">
@@ -26868,7 +26868,7 @@
         <v>3303</v>
       </c>
       <c r="B3305" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3306">
@@ -27140,7 +27140,7 @@
         <v>3337</v>
       </c>
       <c r="B3339" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3340">
@@ -27268,7 +27268,7 @@
         <v>3353</v>
       </c>
       <c r="B3355" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3356">
@@ -27420,7 +27420,7 @@
         <v>3372</v>
       </c>
       <c r="B3374" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3375">
@@ -27524,7 +27524,7 @@
         <v>3385</v>
       </c>
       <c r="B3387" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3388">
@@ -27532,7 +27532,7 @@
         <v>3386</v>
       </c>
       <c r="B3388" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3389">
@@ -27540,7 +27540,7 @@
         <v>3387</v>
       </c>
       <c r="B3389" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3390">
@@ -27628,7 +27628,7 @@
         <v>3398</v>
       </c>
       <c r="B3400" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3401">
@@ -27676,7 +27676,7 @@
         <v>3404</v>
       </c>
       <c r="B3406" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3407">
@@ -27724,7 +27724,7 @@
         <v>3410</v>
       </c>
       <c r="B3412" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3413">
@@ -27916,7 +27916,7 @@
         <v>3434</v>
       </c>
       <c r="B3436" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3437">
@@ -27932,7 +27932,7 @@
         <v>3436</v>
       </c>
       <c r="B3438" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3439">
@@ -27940,7 +27940,7 @@
         <v>3437</v>
       </c>
       <c r="B3439" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3440">
@@ -28212,7 +28212,7 @@
         <v>3471</v>
       </c>
       <c r="B3473" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3474">
@@ -28236,7 +28236,7 @@
         <v>3474</v>
       </c>
       <c r="B3476" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3477">
@@ -28260,7 +28260,7 @@
         <v>3477</v>
       </c>
       <c r="B3479" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3480">
@@ -28404,7 +28404,7 @@
         <v>3495</v>
       </c>
       <c r="B3497" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3498">
@@ -28444,7 +28444,7 @@
         <v>3500</v>
       </c>
       <c r="B3502" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3503">
@@ -28484,7 +28484,7 @@
         <v>3505</v>
       </c>
       <c r="B3507" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3508">
@@ -28500,7 +28500,7 @@
         <v>3507</v>
       </c>
       <c r="B3509" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3510">
@@ -28556,7 +28556,7 @@
         <v>3514</v>
       </c>
       <c r="B3516" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3517">
@@ -28716,7 +28716,7 @@
         <v>3534</v>
       </c>
       <c r="B3536" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3537">
@@ -28724,7 +28724,7 @@
         <v>3535</v>
       </c>
       <c r="B3537" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3538">
@@ -28764,7 +28764,7 @@
         <v>3540</v>
       </c>
       <c r="B3542" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3543">
@@ -28812,7 +28812,7 @@
         <v>3546</v>
       </c>
       <c r="B3548" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3549">
@@ -28860,7 +28860,7 @@
         <v>3552</v>
       </c>
       <c r="B3554" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3555">
@@ -28868,7 +28868,7 @@
         <v>3553</v>
       </c>
       <c r="B3555" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3556">
@@ -28892,7 +28892,7 @@
         <v>3556</v>
       </c>
       <c r="B3558" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3559">
@@ -28932,7 +28932,7 @@
         <v>3561</v>
       </c>
       <c r="B3563" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3564">
@@ -28956,7 +28956,7 @@
         <v>3564</v>
       </c>
       <c r="B3566" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3567">
@@ -29020,7 +29020,7 @@
         <v>3572</v>
       </c>
       <c r="B3574" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3575">
@@ -29028,7 +29028,7 @@
         <v>3573</v>
       </c>
       <c r="B3575" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3576">
@@ -29068,7 +29068,7 @@
         <v>3578</v>
       </c>
       <c r="B3580" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3581">
@@ -29260,7 +29260,7 @@
         <v>3602</v>
       </c>
       <c r="B3604" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3605">
@@ -29276,7 +29276,7 @@
         <v>3604</v>
       </c>
       <c r="B3606" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3607">
@@ -29292,7 +29292,7 @@
         <v>3606</v>
       </c>
       <c r="B3608" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3609">
@@ -29332,7 +29332,7 @@
         <v>3611</v>
       </c>
       <c r="B3613" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3614">
@@ -29356,7 +29356,7 @@
         <v>3614</v>
       </c>
       <c r="B3616" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3617">
@@ -29372,7 +29372,7 @@
         <v>3616</v>
       </c>
       <c r="B3618" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3619">
@@ -29412,7 +29412,7 @@
         <v>3621</v>
       </c>
       <c r="B3623" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3624">
@@ -29460,7 +29460,7 @@
         <v>3627</v>
       </c>
       <c r="B3629" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3630">
@@ -29524,7 +29524,7 @@
         <v>3635</v>
       </c>
       <c r="B3637" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3638">
@@ -29628,7 +29628,7 @@
         <v>3648</v>
       </c>
       <c r="B3650" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3651">
@@ -29684,7 +29684,7 @@
         <v>3655</v>
       </c>
       <c r="B3657" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3658">
@@ -29732,7 +29732,7 @@
         <v>3661</v>
       </c>
       <c r="B3663" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3664">
@@ -29780,7 +29780,7 @@
         <v>3667</v>
       </c>
       <c r="B3669" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3670">
@@ -29892,7 +29892,7 @@
         <v>3681</v>
       </c>
       <c r="B3683" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3684">
@@ -29908,7 +29908,7 @@
         <v>3683</v>
       </c>
       <c r="B3685" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3686">
@@ -29916,7 +29916,7 @@
         <v>3684</v>
       </c>
       <c r="B3686" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3687">
@@ -29988,7 +29988,7 @@
         <v>3693</v>
       </c>
       <c r="B3695" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3696">
@@ -29996,7 +29996,7 @@
         <v>3694</v>
       </c>
       <c r="B3696" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3697">
@@ -30028,7 +30028,7 @@
         <v>3698</v>
       </c>
       <c r="B3700" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3701">
@@ -30156,7 +30156,7 @@
         <v>3714</v>
       </c>
       <c r="B3716" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3717">
@@ -30364,7 +30364,7 @@
         <v>3740</v>
       </c>
       <c r="B3742" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3743">
@@ -30396,7 +30396,7 @@
         <v>3744</v>
       </c>
       <c r="B3746" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3747">
@@ -30524,7 +30524,7 @@
         <v>3760</v>
       </c>
       <c r="B3762" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3763">
@@ -30572,7 +30572,7 @@
         <v>3766</v>
       </c>
       <c r="B3768" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3769">
@@ -30580,7 +30580,7 @@
         <v>3767</v>
       </c>
       <c r="B3769" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3770">
@@ -30668,7 +30668,7 @@
         <v>3778</v>
       </c>
       <c r="B3780" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3781">
@@ -30684,7 +30684,7 @@
         <v>3780</v>
       </c>
       <c r="B3782" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3783">
@@ -30708,7 +30708,7 @@
         <v>3783</v>
       </c>
       <c r="B3785" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3786">
@@ -30732,7 +30732,7 @@
         <v>3786</v>
       </c>
       <c r="B3788" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3789">
@@ -30860,7 +30860,7 @@
         <v>3802</v>
       </c>
       <c r="B3804" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3805">
@@ -30924,7 +30924,7 @@
         <v>3810</v>
       </c>
       <c r="B3812" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3813">
@@ -30940,7 +30940,7 @@
         <v>3812</v>
       </c>
       <c r="B3814" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3815">
@@ -30964,7 +30964,7 @@
         <v>3815</v>
       </c>
       <c r="B3817" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3818">
@@ -31068,7 +31068,7 @@
         <v>3828</v>
       </c>
       <c r="B3830" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3831">
@@ -31108,7 +31108,7 @@
         <v>3833</v>
       </c>
       <c r="B3835" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3836">
@@ -31132,7 +31132,7 @@
         <v>3836</v>
       </c>
       <c r="B3838" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3839">
@@ -31188,7 +31188,7 @@
         <v>3843</v>
       </c>
       <c r="B3845" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3846">
@@ -31212,7 +31212,7 @@
         <v>3846</v>
       </c>
       <c r="B3848" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3849">
@@ -31380,7 +31380,7 @@
         <v>3867</v>
       </c>
       <c r="B3869" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3870">
@@ -31428,7 +31428,7 @@
         <v>3873</v>
       </c>
       <c r="B3875" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3876">
@@ -31492,7 +31492,7 @@
         <v>3881</v>
       </c>
       <c r="B3883" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3884">
@@ -31516,7 +31516,7 @@
         <v>3884</v>
       </c>
       <c r="B3886" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3887">
@@ -31548,7 +31548,7 @@
         <v>3888</v>
       </c>
       <c r="B3890" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3891">
@@ -31660,7 +31660,7 @@
         <v>3902</v>
       </c>
       <c r="B3904" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3905">
@@ -31724,7 +31724,7 @@
         <v>3910</v>
       </c>
       <c r="B3912" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3913">
@@ -31756,7 +31756,7 @@
         <v>3914</v>
       </c>
       <c r="B3916" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3917">
@@ -31812,7 +31812,7 @@
         <v>3921</v>
       </c>
       <c r="B3923" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3924">
@@ -31820,7 +31820,7 @@
         <v>3922</v>
       </c>
       <c r="B3924" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3925">
@@ -31836,7 +31836,7 @@
         <v>3924</v>
       </c>
       <c r="B3926" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3927">
@@ -31908,7 +31908,7 @@
         <v>3933</v>
       </c>
       <c r="B3935" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3936">
@@ -31964,7 +31964,7 @@
         <v>3940</v>
       </c>
       <c r="B3942" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3943">
@@ -31996,7 +31996,7 @@
         <v>3944</v>
       </c>
       <c r="B3946" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3947">
@@ -32004,7 +32004,7 @@
         <v>3945</v>
       </c>
       <c r="B3947" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3948">
@@ -32060,7 +32060,7 @@
         <v>3952</v>
       </c>
       <c r="B3954" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3955">
@@ -32084,7 +32084,7 @@
         <v>3955</v>
       </c>
       <c r="B3957" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3958">
@@ -32204,7 +32204,7 @@
         <v>3970</v>
       </c>
       <c r="B3972" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3973">
@@ -32212,7 +32212,7 @@
         <v>3971</v>
       </c>
       <c r="B3973" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3974">
@@ -32236,7 +32236,7 @@
         <v>3974</v>
       </c>
       <c r="B3976" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3977">
@@ -32292,7 +32292,7 @@
         <v>3981</v>
       </c>
       <c r="B3983" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3984">
@@ -32540,7 +32540,7 @@
         <v>4012</v>
       </c>
       <c r="B4014" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4015">
@@ -32596,7 +32596,7 @@
         <v>4019</v>
       </c>
       <c r="B4021" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4022">
@@ -32620,7 +32620,7 @@
         <v>4022</v>
       </c>
       <c r="B4024" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4025">
@@ -32628,7 +32628,7 @@
         <v>4023</v>
       </c>
       <c r="B4025" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4026">
@@ -32772,7 +32772,7 @@
         <v>4041</v>
       </c>
       <c r="B4043" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4044">
@@ -32948,7 +32948,7 @@
         <v>4063</v>
       </c>
       <c r="B4065" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4066">
@@ -33172,7 +33172,7 @@
         <v>4091</v>
       </c>
       <c r="B4093" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4094">
@@ -33292,7 +33292,7 @@
         <v>4106</v>
       </c>
       <c r="B4108" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4109">
@@ -33316,7 +33316,7 @@
         <v>4109</v>
       </c>
       <c r="B4111" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4112">
@@ -33524,7 +33524,7 @@
         <v>4135</v>
       </c>
       <c r="B4137" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4138">
@@ -33572,7 +33572,7 @@
         <v>4141</v>
       </c>
       <c r="B4143" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4144">
@@ -33612,7 +33612,7 @@
         <v>4146</v>
       </c>
       <c r="B4148" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4149">
@@ -33628,7 +33628,7 @@
         <v>4148</v>
       </c>
       <c r="B4150" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4151">
@@ -33740,7 +33740,7 @@
         <v>4162</v>
       </c>
       <c r="B4164" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4165">
@@ -33788,7 +33788,7 @@
         <v>4168</v>
       </c>
       <c r="B4170" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4171">
@@ -33860,7 +33860,7 @@
         <v>4177</v>
       </c>
       <c r="B4179" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4180">
@@ -33956,7 +33956,7 @@
         <v>4189</v>
       </c>
       <c r="B4191" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4192">
@@ -33972,7 +33972,7 @@
         <v>4191</v>
       </c>
       <c r="B4193" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4194">
@@ -34028,7 +34028,7 @@
         <v>4198</v>
       </c>
       <c r="B4200" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4201">
@@ -34052,7 +34052,7 @@
         <v>4201</v>
       </c>
       <c r="B4203" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4204">
@@ -34148,7 +34148,7 @@
         <v>4213</v>
       </c>
       <c r="B4215" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4216">
@@ -34172,7 +34172,7 @@
         <v>4216</v>
       </c>
       <c r="B4218" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4219">
@@ -34180,7 +34180,7 @@
         <v>4217</v>
       </c>
       <c r="B4219" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4220">
@@ -34452,7 +34452,7 @@
         <v>4251</v>
       </c>
       <c r="B4253" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4254">
@@ -34492,7 +34492,7 @@
         <v>4256</v>
       </c>
       <c r="B4258" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4259">
@@ -34548,7 +34548,7 @@
         <v>4263</v>
       </c>
       <c r="B4265" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4266">
@@ -34564,7 +34564,7 @@
         <v>4265</v>
       </c>
       <c r="B4267" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4268">
@@ -34644,7 +34644,7 @@
         <v>4275</v>
       </c>
       <c r="B4277" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4278">
@@ -34652,7 +34652,7 @@
         <v>4276</v>
       </c>
       <c r="B4278" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4279">
@@ -34764,7 +34764,7 @@
         <v>4290</v>
       </c>
       <c r="B4292" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4293">
@@ -34820,7 +34820,7 @@
         <v>4297</v>
       </c>
       <c r="B4299" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4300">
@@ -34844,7 +34844,7 @@
         <v>4300</v>
       </c>
       <c r="B4302" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4303">
@@ -34852,7 +34852,7 @@
         <v>4301</v>
       </c>
       <c r="B4303" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4304">
@@ -34908,7 +34908,7 @@
         <v>4308</v>
       </c>
       <c r="B4310" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4311">
@@ -34996,7 +34996,7 @@
         <v>4319</v>
       </c>
       <c r="B4321" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4322">
@@ -35028,7 +35028,7 @@
         <v>4323</v>
       </c>
       <c r="B4325" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4326">
@@ -35044,7 +35044,7 @@
         <v>4325</v>
       </c>
       <c r="B4327" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4328">
@@ -35052,7 +35052,7 @@
         <v>4326</v>
       </c>
       <c r="B4328" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4329">
@@ -35100,7 +35100,7 @@
         <v>4332</v>
       </c>
       <c r="B4334" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4335">
@@ -35164,7 +35164,7 @@
         <v>4340</v>
       </c>
       <c r="B4342" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4343">
@@ -35212,7 +35212,7 @@
         <v>4346</v>
       </c>
       <c r="B4348" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4349">
@@ -35308,7 +35308,7 @@
         <v>4358</v>
       </c>
       <c r="B4360" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4361">
@@ -35316,7 +35316,7 @@
         <v>4359</v>
       </c>
       <c r="B4361" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4362">
@@ -35324,7 +35324,7 @@
         <v>4360</v>
       </c>
       <c r="B4362" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4363">
@@ -35340,7 +35340,7 @@
         <v>4362</v>
       </c>
       <c r="B4364" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4365">
@@ -35356,7 +35356,7 @@
         <v>4364</v>
       </c>
       <c r="B4366" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4367">
@@ -35372,7 +35372,7 @@
         <v>4366</v>
       </c>
       <c r="B4368" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4369">
@@ -35420,7 +35420,7 @@
         <v>4372</v>
       </c>
       <c r="B4374" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4375">
@@ -35428,7 +35428,7 @@
         <v>4373</v>
       </c>
       <c r="B4375" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4376">
@@ -35476,7 +35476,7 @@
         <v>4379</v>
       </c>
       <c r="B4381" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4382">
@@ -35572,7 +35572,7 @@
         <v>4391</v>
       </c>
       <c r="B4393" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4394">
@@ -35588,7 +35588,7 @@
         <v>4393</v>
       </c>
       <c r="B4395" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4396">
@@ -35636,7 +35636,7 @@
         <v>4399</v>
       </c>
       <c r="B4401" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4402">
@@ -35716,7 +35716,7 @@
         <v>4409</v>
       </c>
       <c r="B4411" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4412">
@@ -35772,7 +35772,7 @@
         <v>4416</v>
       </c>
       <c r="B4418" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4419">
@@ -35788,7 +35788,7 @@
         <v>4418</v>
       </c>
       <c r="B4420" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4421">
@@ -35876,7 +35876,7 @@
         <v>4429</v>
       </c>
       <c r="B4431" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4432">
@@ -36012,7 +36012,7 @@
         <v>4446</v>
       </c>
       <c r="B4448" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4449">
@@ -36044,7 +36044,7 @@
         <v>4450</v>
       </c>
       <c r="B4452" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4453">
@@ -36092,7 +36092,7 @@
         <v>4456</v>
       </c>
       <c r="B4458" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4459">
@@ -36252,7 +36252,7 @@
         <v>4476</v>
       </c>
       <c r="B4478" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4479">
@@ -36372,7 +36372,7 @@
         <v>4491</v>
       </c>
       <c r="B4493" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4494">
@@ -36460,7 +36460,7 @@
         <v>4502</v>
       </c>
       <c r="B4504" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4505">
@@ -36620,7 +36620,7 @@
         <v>4522</v>
       </c>
       <c r="B4524" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4525">
@@ -36788,7 +36788,7 @@
         <v>4543</v>
       </c>
       <c r="B4545" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4546">
@@ -36860,7 +36860,7 @@
         <v>4552</v>
       </c>
       <c r="B4554" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4555">
@@ -36900,7 +36900,7 @@
         <v>4557</v>
       </c>
       <c r="B4559" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4560">
@@ -36932,7 +36932,7 @@
         <v>4561</v>
       </c>
       <c r="B4563" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4564">
@@ -37036,7 +37036,7 @@
         <v>4574</v>
       </c>
       <c r="B4576" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4577">
@@ -37164,7 +37164,7 @@
         <v>4590</v>
       </c>
       <c r="B4592" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4593">
@@ -37220,7 +37220,7 @@
         <v>4597</v>
       </c>
       <c r="B4599" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4600">
@@ -37252,7 +37252,7 @@
         <v>4601</v>
       </c>
       <c r="B4603" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4604">
@@ -37308,7 +37308,7 @@
         <v>4608</v>
       </c>
       <c r="B4610" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4611">
@@ -37436,7 +37436,7 @@
         <v>4624</v>
       </c>
       <c r="B4626" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4627">
@@ -37500,7 +37500,7 @@
         <v>4632</v>
       </c>
       <c r="B4634" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4635">
@@ -37532,7 +37532,7 @@
         <v>4636</v>
       </c>
       <c r="B4638" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4639">
@@ -37604,7 +37604,7 @@
         <v>4645</v>
       </c>
       <c r="B4647" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4648">
@@ -37668,7 +37668,7 @@
         <v>4653</v>
       </c>
       <c r="B4655" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4656">
@@ -37692,7 +37692,7 @@
         <v>4656</v>
       </c>
       <c r="B4658" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4659">
@@ -37740,7 +37740,7 @@
         <v>4662</v>
       </c>
       <c r="B4664" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4665">
@@ -37836,7 +37836,7 @@
         <v>4674</v>
       </c>
       <c r="B4676" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4677">
@@ -37868,7 +37868,7 @@
         <v>4678</v>
       </c>
       <c r="B4680" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4681">
@@ -37884,7 +37884,7 @@
         <v>4680</v>
       </c>
       <c r="B4682" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4683">
@@ -37916,7 +37916,7 @@
         <v>4684</v>
       </c>
       <c r="B4686" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4687">
@@ -38068,7 +38068,7 @@
         <v>4703</v>
       </c>
       <c r="B4705" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4706">
@@ -38156,7 +38156,7 @@
         <v>4714</v>
       </c>
       <c r="B4716" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4717">
@@ -38212,7 +38212,7 @@
         <v>4721</v>
       </c>
       <c r="B4723" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4724">
@@ -38348,7 +38348,7 @@
         <v>4738</v>
       </c>
       <c r="B4740" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4741">
@@ -38412,7 +38412,7 @@
         <v>4746</v>
       </c>
       <c r="B4748" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4749">
@@ -38428,7 +38428,7 @@
         <v>4748</v>
       </c>
       <c r="B4750" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4751">
@@ -38500,7 +38500,7 @@
         <v>4757</v>
       </c>
       <c r="B4759" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4760">
@@ -38524,7 +38524,7 @@
         <v>4760</v>
       </c>
       <c r="B4762" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4763">
@@ -38580,7 +38580,7 @@
         <v>4767</v>
       </c>
       <c r="B4769" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4770">
@@ -38684,7 +38684,7 @@
         <v>4780</v>
       </c>
       <c r="B4782" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4783">
@@ -38708,7 +38708,7 @@
         <v>4783</v>
       </c>
       <c r="B4785" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4786">
@@ -38716,7 +38716,7 @@
         <v>4784</v>
       </c>
       <c r="B4786" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4787">
@@ -38724,7 +38724,7 @@
         <v>4785</v>
       </c>
       <c r="B4787" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4788">
@@ -38748,7 +38748,7 @@
         <v>4788</v>
       </c>
       <c r="B4790" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4791">
@@ -38820,7 +38820,7 @@
         <v>4797</v>
       </c>
       <c r="B4799" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4800">
@@ -38868,7 +38868,7 @@
         <v>4803</v>
       </c>
       <c r="B4805" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4806">
@@ -38900,7 +38900,7 @@
         <v>4807</v>
       </c>
       <c r="B4809" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4810">
@@ -38908,7 +38908,7 @@
         <v>4808</v>
       </c>
       <c r="B4810" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4811">
@@ -38964,7 +38964,7 @@
         <v>4815</v>
       </c>
       <c r="B4817" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4818">
@@ -38996,7 +38996,7 @@
         <v>4819</v>
       </c>
       <c r="B4821" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4822">
@@ -39052,7 +39052,7 @@
         <v>4826</v>
       </c>
       <c r="B4828" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4829">
@@ -39092,7 +39092,7 @@
         <v>4831</v>
       </c>
       <c r="B4833" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4834">
@@ -39140,7 +39140,7 @@
         <v>4837</v>
       </c>
       <c r="B4839" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4840">
@@ -39204,7 +39204,7 @@
         <v>4845</v>
       </c>
       <c r="B4847" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4848">
@@ -39252,7 +39252,7 @@
         <v>4851</v>
       </c>
       <c r="B4853" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4854">
@@ -39284,7 +39284,7 @@
         <v>4855</v>
       </c>
       <c r="B4857" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4858">
@@ -39332,7 +39332,7 @@
         <v>4861</v>
       </c>
       <c r="B4863" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4864">
@@ -39340,7 +39340,7 @@
         <v>4862</v>
       </c>
       <c r="B4864" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4865">
@@ -39356,7 +39356,7 @@
         <v>4864</v>
       </c>
       <c r="B4866" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4867">
@@ -39420,7 +39420,7 @@
         <v>4872</v>
       </c>
       <c r="B4874" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4875">
@@ -39436,7 +39436,7 @@
         <v>4874</v>
       </c>
       <c r="B4876" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4877">
@@ -39516,7 +39516,7 @@
         <v>4884</v>
       </c>
       <c r="B4886" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4887">
@@ -39564,7 +39564,7 @@
         <v>4890</v>
       </c>
       <c r="B4892" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4893">
@@ -39644,7 +39644,7 @@
         <v>4900</v>
       </c>
       <c r="B4902" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4903">
@@ -39660,7 +39660,7 @@
         <v>4902</v>
       </c>
       <c r="B4904" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4905">
@@ -39684,7 +39684,7 @@
         <v>4905</v>
       </c>
       <c r="B4907" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4908">
@@ -39700,7 +39700,7 @@
         <v>4907</v>
       </c>
       <c r="B4909" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4910">
@@ -39796,7 +39796,7 @@
         <v>4919</v>
       </c>
       <c r="B4921" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4922">
@@ -39860,7 +39860,7 @@
         <v>4927</v>
       </c>
       <c r="B4929" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4930">
@@ -39932,7 +39932,7 @@
         <v>4936</v>
       </c>
       <c r="B4938" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4939">
@@ -39980,7 +39980,7 @@
         <v>4942</v>
       </c>
       <c r="B4944" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4945">
@@ -40004,7 +40004,7 @@
         <v>4945</v>
       </c>
       <c r="B4947" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4948">
@@ -40220,7 +40220,7 @@
         <v>4972</v>
       </c>
       <c r="B4974" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4975">
@@ -40252,7 +40252,7 @@
         <v>4976</v>
       </c>
       <c r="B4978" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4979">
@@ -40276,7 +40276,7 @@
         <v>4979</v>
       </c>
       <c r="B4981" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4982">
@@ -40284,7 +40284,7 @@
         <v>4980</v>
       </c>
       <c r="B4982" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4983">
@@ -40316,7 +40316,7 @@
         <v>4984</v>
       </c>
       <c r="B4986" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4987">
@@ -40412,7 +40412,7 @@
         <v>4996</v>
       </c>
       <c r="B4998" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4999">
